--- a/biology/Botanique/Rhus_microphylla/Rhus_microphylla.xlsx
+++ b/biology/Botanique/Rhus_microphylla/Rhus_microphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sumac à petites feuilles ou sumac du désert, Rhus microphylla, est une espèce de sumacs du genre Rhus et de la famille des Anacardiaceae.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Rhus ont des feuilles alternes composées-imparipennées aux folioles lancéolées dentées.
 C'est un buisson ou arbuste d'une taille moyenne de 2 mètres de haut sur 2 à 3 mètres de large.
 Son port (botanique) est buissonnant, il possède de petites feuilles caduques brillantes à l'aspect de cuir, de 6 à 9 folioles. Elles deviennent rouges orange à l'automne.
-En milieu naturel, les branches retombantes forment un abri pour de petits mammifères et oiseaux[1]. Les oiseaux consomment en fin d'été les baies produites à partir de groupes de petites fleurs blanches qui mûrissent en baies rouges duveteuses. Ces baies mesures en moyenne 5 mm de diamètre.
+En milieu naturel, les branches retombantes forment un abri pour de petits mammifères et oiseaux. Les oiseaux consomment en fin d'été les baies produites à partir de groupes de petites fleurs blanches qui mûrissent en baies rouges duveteuses. Ces baies mesures en moyenne 5 mm de diamètre.
 Très tolérant, R. microphylla peut résister à des températures extrêmes, que ce soit en chaudes ou froides (inférieures à -20 °C). Il est aussi très tolérant à la sècheresse.
-C'est une plante dioïque (ayant des individus mâles et femelles séparés)[2].
+C'est une plante dioïque (ayant des individus mâles et femelles séparés).
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sumac à petites feuilles est natif d'Amérique du Nord.
 On le trouve dans le sud ouest des États-Unis (Arizona, Nouveau-Mexique, Texas), dans centre et le nord du Mexique, ainsi que le nord de l'Altiplano mexicain. 
@@ -580,7 +596,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce fût décrite en 1852 par George Engelmann dans le Smithsonian Contributions to Knowledge, ouvrage de la série Smithsonian Contributions and Studies Series, série d'écrits scientifiques de la Smithsonian Institution 
 </t>
@@ -611,9 +629,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses baies sont comestibles, crues ou cuites, bien qu'ayant une goût amer. On peut en faire de la confiture, ou de la limonade[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses baies sont comestibles, crues ou cuites, bien qu'ayant une goût amer. On peut en faire de la confiture, ou de la limonade.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante ayant de probables propriétés médicinales comparable à celles des autres sumacs[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante ayant de probables propriétés médicinales comparable à celles des autres sumacs.
 </t>
         </is>
       </c>
@@ -673,10 +695,12 @@
           <t>Autres utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut extraire des graines une huile à la consistance du suif, qui peut être utilisée pour la confection de bougies, produisant cependant une fumée âcre.
-Les feuilles riches en tanins peuvent être récoltées en automne utilisées comme teinture marron ou comme mordant[4].
+Les feuilles riches en tanins peuvent être récoltées en automne utilisées comme teinture marron ou comme mordant.
 </t>
         </is>
       </c>
